--- a/Datos/Database by set/Set with text box/Xlsx sets/Portal Demo Game (PPOD).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Portal Demo Game (PPOD).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,217 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Armored Pegasus</t>
+          <t>('Armored Pegasus', ['{1}{W}', 'Creature — Pegasus', 'Flying', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{W}</t>
+          <t>('Bull Hippo', ['{3}{G}', 'Creature — Hippo', 'Islandwalk (This creature can’t be blocked as long as defending player controls an Island.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Pegasus</t>
+          <t>('Cloud Pirates', ['{U}', 'Creature — Human Pirate', 'Flying', 'Cloud Pirates can block only creatures with flying.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Feral Shadow', ['{2}{B}', 'Creature — Nightstalker', 'Flying', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2</t>
+          <t>('Snapping Drake', ['{3}{U}', 'Creature — Drake', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bull Hippo</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{3}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Creature — Hippo</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Islandwalk (This creature can’t be blocked as long as defending player controls an Island.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Cloud Pirates</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Human Pirate</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Cloud Pirates can block only creatures with flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Feral Shadow</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Creature — Nightstalker</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Snapping Drake</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{3}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Creature — Drake</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Storm Crow</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1/2</t>
+          <t>('Storm Crow', ['{1}{U}', 'Creature — Bird', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', '1/2'])</t>
         </is>
       </c>
     </row>
